--- a/simulation_data/iterative_algorithm/i_error_level_8_percent_water_60.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_8_percent_water_60.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>89.53374117291088</v>
+        <v>88.13655156403605</v>
       </c>
       <c r="D2" t="n">
-        <v>13.4660452295271</v>
+        <v>11.25808943241699</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>89.1423764505666</v>
+        <v>88.44783178872598</v>
       </c>
       <c r="D3" t="n">
-        <v>11.22952585743147</v>
+        <v>10.64510114176245</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>87.00970590284082</v>
+        <v>88.44130410740821</v>
       </c>
       <c r="D4" t="n">
-        <v>11.7328950680714</v>
+        <v>11.38300329599328</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>88.52617419436488</v>
+        <v>88.52220153011979</v>
       </c>
       <c r="D5" t="n">
-        <v>12.94912490614522</v>
+        <v>10.28623345333085</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>87.14886065189533</v>
+        <v>85.60059961915977</v>
       </c>
       <c r="D6" t="n">
-        <v>12.20605955719948</v>
+        <v>11.07106648235662</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>84.62576861200913</v>
+        <v>86.04722854494477</v>
       </c>
       <c r="D7" t="n">
-        <v>10.46156212751168</v>
+        <v>11.21331058850206</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>82.78904848328393</v>
+        <v>85.50459218559593</v>
       </c>
       <c r="D8" t="n">
-        <v>12.38587850212099</v>
+        <v>13.0095180413636</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>83.53990598810306</v>
+        <v>83.76389059625339</v>
       </c>
       <c r="D9" t="n">
-        <v>11.33623792078627</v>
+        <v>12.59811218439635</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>80.48717900820365</v>
+        <v>81.04374453717654</v>
       </c>
       <c r="D10" t="n">
-        <v>12.2685821754131</v>
+        <v>11.60945677740808</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>81.24482807060581</v>
+        <v>82.12943244463101</v>
       </c>
       <c r="D11" t="n">
-        <v>10.45629789173156</v>
+        <v>11.26033697395815</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>81.9364883644092</v>
+        <v>78.35669151846544</v>
       </c>
       <c r="D12" t="n">
-        <v>10.98240791355289</v>
+        <v>10.80058583464973</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>79.79788544419127</v>
+        <v>79.40557517028464</v>
       </c>
       <c r="D13" t="n">
-        <v>12.16175478809463</v>
+        <v>12.3147894705776</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>79.03709146342436</v>
+        <v>78.99116829830497</v>
       </c>
       <c r="D14" t="n">
-        <v>11.95521929921537</v>
+        <v>11.90934793820613</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>78.46667585668334</v>
+        <v>77.00830812318823</v>
       </c>
       <c r="D15" t="n">
-        <v>11.95779229533185</v>
+        <v>10.84044405061525</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>74.30256851347406</v>
+        <v>75.72361661305746</v>
       </c>
       <c r="D16" t="n">
-        <v>11.30794296469944</v>
+        <v>10.19230186526222</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.15943015436001</v>
+        <v>75.8764750446352</v>
       </c>
       <c r="D17" t="n">
-        <v>10.80733523731647</v>
+        <v>11.88972914809684</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>73.41672740291654</v>
+        <v>74.31436757187426</v>
       </c>
       <c r="D18" t="n">
-        <v>12.43927349137535</v>
+        <v>10.48581981884545</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>71.69090076630893</v>
+        <v>71.78724549245929</v>
       </c>
       <c r="D19" t="n">
-        <v>12.00339871551555</v>
+        <v>12.38585769903385</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>72.19265452414068</v>
+        <v>72.10303192948554</v>
       </c>
       <c r="D20" t="n">
-        <v>13.96821758737841</v>
+        <v>10.84079457144457</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>69.3714213584867</v>
+        <v>71.40184054022205</v>
       </c>
       <c r="D21" t="n">
-        <v>11.07573929343482</v>
+        <v>11.53974169557615</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>70.38657807574157</v>
+        <v>69.34885595441671</v>
       </c>
       <c r="D22" t="n">
-        <v>13.26832618054977</v>
+        <v>10.89698560733344</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>71.28882171204602</v>
+        <v>69.43482825876018</v>
       </c>
       <c r="D23" t="n">
-        <v>11.41692397017079</v>
+        <v>12.19374174821614</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>68.10515394688005</v>
+        <v>67.35042535631723</v>
       </c>
       <c r="D24" t="n">
-        <v>13.37669926926602</v>
+        <v>12.78574246718332</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>65.74375604630102</v>
+        <v>65.85885975479415</v>
       </c>
       <c r="D25" t="n">
-        <v>12.83915946777913</v>
+        <v>11.56976327136694</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.44598379705435</v>
+        <v>63.45463997055901</v>
       </c>
       <c r="D26" t="n">
-        <v>12.68296548291501</v>
+        <v>11.89463860800385</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>63.54790757529586</v>
+        <v>66.07755309081028</v>
       </c>
       <c r="D27" t="n">
-        <v>11.66498164555107</v>
+        <v>11.0378805256799</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.5053123280209</v>
+        <v>62.40698417751231</v>
       </c>
       <c r="D28" t="n">
-        <v>11.26912895689786</v>
+        <v>12.46833752548111</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>63.4648394069061</v>
+        <v>63.94562092305545</v>
       </c>
       <c r="D29" t="n">
-        <v>12.34997303883008</v>
+        <v>11.2251679869072</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>62.32906619006047</v>
+        <v>61.61075787006675</v>
       </c>
       <c r="D30" t="n">
-        <v>12.02464786212955</v>
+        <v>11.07005590332072</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>60.77512675841736</v>
+        <v>61.49829520816202</v>
       </c>
       <c r="D31" t="n">
-        <v>11.99335865034262</v>
+        <v>11.00768892540926</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>59.50627107503357</v>
+        <v>62.48996595458834</v>
       </c>
       <c r="D32" t="n">
-        <v>13.41840978710823</v>
+        <v>12.36049698411765</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.43412661407401</v>
+        <v>57.91119272516825</v>
       </c>
       <c r="D33" t="n">
-        <v>13.01813452385161</v>
+        <v>11.84189214651081</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.66390989834053</v>
+        <v>54.97331010342591</v>
       </c>
       <c r="D34" t="n">
-        <v>13.21904831566541</v>
+        <v>11.00307537199065</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.09296987228712</v>
+        <v>58.03967266813937</v>
       </c>
       <c r="D35" t="n">
-        <v>11.18265352249065</v>
+        <v>11.50084715335239</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>55.74876483730398</v>
+        <v>55.59565427454526</v>
       </c>
       <c r="D36" t="n">
-        <v>11.75550943788729</v>
+        <v>12.30629260079635</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>52.67104352105967</v>
+        <v>52.95895129946494</v>
       </c>
       <c r="D37" t="n">
-        <v>12.22628730435613</v>
+        <v>12.73281024117451</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>52.64477897195048</v>
+        <v>53.43882045701437</v>
       </c>
       <c r="D38" t="n">
-        <v>10.96307815258867</v>
+        <v>11.71423962479388</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.66817506377983</v>
+        <v>52.40275797770025</v>
       </c>
       <c r="D39" t="n">
-        <v>12.48482249153121</v>
+        <v>10.82831769449266</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>50.69657722002191</v>
+        <v>51.41650657896807</v>
       </c>
       <c r="D40" t="n">
-        <v>11.96890522089028</v>
+        <v>12.61942153914596</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.36413003408376</v>
+        <v>50.64130712758158</v>
       </c>
       <c r="D41" t="n">
-        <v>11.15892510656868</v>
+        <v>10.7154081387708</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>48.47612379279867</v>
+        <v>49.8012967734292</v>
       </c>
       <c r="D42" t="n">
-        <v>11.36848526451721</v>
+        <v>11.17708383257205</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.14707902672502</v>
+        <v>47.88600017409724</v>
       </c>
       <c r="D43" t="n">
-        <v>11.43964366803165</v>
+        <v>12.82939424480504</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.7636116284936</v>
+        <v>46.58851015955958</v>
       </c>
       <c r="D44" t="n">
-        <v>12.41767631260902</v>
+        <v>11.37691979825525</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.01966063647268</v>
+        <v>47.28231100912492</v>
       </c>
       <c r="D45" t="n">
-        <v>11.94759524032813</v>
+        <v>11.97153559466171</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.0764766262886</v>
+        <v>45.46534205730553</v>
       </c>
       <c r="D46" t="n">
-        <v>12.53849699657543</v>
+        <v>11.73731565529167</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.7871883195324</v>
+        <v>46.61728271298543</v>
       </c>
       <c r="D47" t="n">
-        <v>12.69057605966301</v>
+        <v>11.91301447326696</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.18150606276167</v>
+        <v>40.57328051502211</v>
       </c>
       <c r="D48" t="n">
-        <v>11.39354067351297</v>
+        <v>11.95317885559644</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.70023148280696</v>
+        <v>42.65273149334038</v>
       </c>
       <c r="D49" t="n">
-        <v>12.58799745802568</v>
+        <v>10.98551133671412</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.81864163325811</v>
+        <v>40.77077322883342</v>
       </c>
       <c r="D50" t="n">
-        <v>10.47245267700731</v>
+        <v>12.6909551210574</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>39.65028979900718</v>
+        <v>41.59675564237809</v>
       </c>
       <c r="D51" t="n">
-        <v>12.35484510507721</v>
+        <v>12.12739969254094</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.98650063159555</v>
+        <v>40.38921174308804</v>
       </c>
       <c r="D52" t="n">
-        <v>11.52754120810605</v>
+        <v>11.75242973744456</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>37.19867942601402</v>
+        <v>38.10312731827216</v>
       </c>
       <c r="D53" t="n">
-        <v>13.2522639040399</v>
+        <v>12.24459064746067</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>40.44617906093256</v>
+        <v>35.48148795261393</v>
       </c>
       <c r="D54" t="n">
-        <v>10.84304616233157</v>
+        <v>13.12280297886801</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.23457864250604</v>
+        <v>34.66847392054384</v>
       </c>
       <c r="D55" t="n">
-        <v>13.11528722693797</v>
+        <v>12.67071973359188</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.27430922552524</v>
+        <v>37.04531563811991</v>
       </c>
       <c r="D56" t="n">
-        <v>11.71214574199599</v>
+        <v>10.03228681234079</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.48970908370631</v>
+        <v>34.72809219091808</v>
       </c>
       <c r="D57" t="n">
-        <v>9.539560430048558</v>
+        <v>11.98195899830561</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.84755717702689</v>
+        <v>34.38157216609517</v>
       </c>
       <c r="D58" t="n">
-        <v>11.30633697152141</v>
+        <v>11.36982835919933</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.03473772457887</v>
+        <v>33.17341441442868</v>
       </c>
       <c r="D59" t="n">
-        <v>12.331536577521</v>
+        <v>11.15206602390496</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.83539153141245</v>
+        <v>32.42363173130452</v>
       </c>
       <c r="D60" t="n">
-        <v>11.15134374714624</v>
+        <v>11.74472250983389</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>32.67167731143213</v>
+        <v>28.40343274604887</v>
       </c>
       <c r="D61" t="n">
-        <v>12.22452117720148</v>
+        <v>11.98055173535582</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.44677611623228</v>
+        <v>29.75582089097517</v>
       </c>
       <c r="D62" t="n">
-        <v>13.33259101897339</v>
+        <v>12.27662000883086</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.18515756236692</v>
+        <v>31.07733991488276</v>
       </c>
       <c r="D63" t="n">
-        <v>11.07961549999662</v>
+        <v>11.10145407191497</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>23.3616974294379</v>
+        <v>28.79197360877457</v>
       </c>
       <c r="D64" t="n">
-        <v>12.44531198580332</v>
+        <v>11.45914746630744</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.36260595796613</v>
+        <v>27.08847732784721</v>
       </c>
       <c r="D65" t="n">
-        <v>12.97345619885244</v>
+        <v>12.76144243785632</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.53194888253313</v>
+        <v>25.7390192645604</v>
       </c>
       <c r="D66" t="n">
-        <v>12.95733514899912</v>
+        <v>11.38527444706897</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.85638662615138</v>
+        <v>24.40965792632084</v>
       </c>
       <c r="D67" t="n">
-        <v>11.36110337505731</v>
+        <v>11.10555661874732</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>26.06127322075584</v>
+        <v>22.35131728382151</v>
       </c>
       <c r="D68" t="n">
-        <v>10.81819068790555</v>
+        <v>12.38062006266873</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.23542043159547</v>
+        <v>22.55254575082113</v>
       </c>
       <c r="D69" t="n">
-        <v>12.10029615743171</v>
+        <v>13.3242227529612</v>
       </c>
     </row>
   </sheetData>
